--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H2">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I2">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J2">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N2">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O2">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P2">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q2">
-        <v>40.00634786241</v>
+        <v>47.579405678106</v>
       </c>
       <c r="R2">
-        <v>160.02539144964</v>
+        <v>190.317622712424</v>
       </c>
       <c r="S2">
-        <v>0.0002725703784750183</v>
+        <v>0.0007119379478896848</v>
       </c>
       <c r="T2">
-        <v>0.0001325852318820287</v>
+        <v>0.0003673030711526103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H3">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I3">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J3">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O3">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P3">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q3">
-        <v>17.5072228310025</v>
+        <v>59.101949515305</v>
       </c>
       <c r="R3">
-        <v>105.043336986015</v>
+        <v>354.61169709183</v>
       </c>
       <c r="S3">
-        <v>0.0001192798295286674</v>
+        <v>0.000884351539379736</v>
       </c>
       <c r="T3">
-        <v>8.703115840423222E-05</v>
+        <v>0.0006843820532861541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H4">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I4">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J4">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N4">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O4">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P4">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q4">
-        <v>39.85146485344499</v>
+        <v>21.617361473645</v>
       </c>
       <c r="R4">
-        <v>239.10878912067</v>
+        <v>129.70416884187</v>
       </c>
       <c r="S4">
-        <v>0.0002715151329295332</v>
+        <v>0.0003234638967636006</v>
       </c>
       <c r="T4">
-        <v>0.0001981079000239275</v>
+        <v>0.0002503222711482805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H5">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I5">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J5">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N5">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O5">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P5">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q5">
-        <v>5.030899637640749</v>
+        <v>28.641370217206</v>
       </c>
       <c r="R5">
-        <v>20.123598550563</v>
+        <v>114.565480868824</v>
       </c>
       <c r="S5">
-        <v>3.427641590823696E-05</v>
+        <v>0.00042856521737869</v>
       </c>
       <c r="T5">
-        <v>1.667292893932337E-05</v>
+        <v>0.0002211053940852303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H6">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I6">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J6">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N6">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O6">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P6">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q6">
-        <v>18.359826631755</v>
+        <v>9.625413163879669</v>
       </c>
       <c r="R6">
-        <v>110.15895979053</v>
+        <v>57.75247898327801</v>
       </c>
       <c r="S6">
-        <v>0.0001250887711861164</v>
+        <v>0.0001440265341236947</v>
       </c>
       <c r="T6">
-        <v>9.126958600383639E-05</v>
+        <v>0.0001114592679065123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H7">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I7">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J7">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N7">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O7">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P7">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q7">
-        <v>73.2157026398955</v>
+        <v>29.32751521153567</v>
       </c>
       <c r="R7">
-        <v>439.294215839373</v>
+        <v>175.965091269214</v>
       </c>
       <c r="S7">
-        <v>0.000498831631607688</v>
+        <v>0.0004388321102130119</v>
       </c>
       <c r="T7">
-        <v>0.0003639667739217912</v>
+        <v>0.0003396034351295648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J8">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N8">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O8">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P8">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q8">
-        <v>209.8418934476933</v>
+        <v>73.92609314970801</v>
       </c>
       <c r="R8">
-        <v>1259.05136068616</v>
+        <v>443.556558898248</v>
       </c>
       <c r="S8">
-        <v>0.00142969022100351</v>
+        <v>0.001106167475242828</v>
       </c>
       <c r="T8">
-        <v>0.001043157058362777</v>
+        <v>0.0008560409907987712</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J9">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O9">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P9">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q9">
         <v>91.82914672699</v>
@@ -1013,10 +1013,10 @@
         <v>826.4623205429101</v>
       </c>
       <c r="S9">
-        <v>0.000625648343720267</v>
+        <v>0.00137405361301849</v>
       </c>
       <c r="T9">
-        <v>0.0006847456982814199</v>
+        <v>0.001595029110814483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J10">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N10">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O10">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P10">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q10">
-        <v>209.0294987753311</v>
+        <v>33.58778982577667</v>
       </c>
       <c r="R10">
-        <v>1881.26548897798</v>
+        <v>302.29010843199</v>
       </c>
       <c r="S10">
-        <v>0.001424155231304415</v>
+        <v>0.0005025792529753465</v>
       </c>
       <c r="T10">
-        <v>0.001558677774997343</v>
+        <v>0.0005834041200372627</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J11">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N11">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O11">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P11">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q11">
-        <v>26.38814993407033</v>
+        <v>44.50128311684134</v>
       </c>
       <c r="R11">
-        <v>158.328899604422</v>
+        <v>267.007698701048</v>
       </c>
       <c r="S11">
-        <v>0.0001797871687643671</v>
+        <v>0.0006658795276890283</v>
       </c>
       <c r="T11">
-        <v>0.0001311796439147281</v>
+        <v>0.0005153109121296499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J12">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N12">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O12">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P12">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q12">
-        <v>96.30123691942445</v>
+        <v>14.95540307862289</v>
       </c>
       <c r="R12">
-        <v>866.7111322748201</v>
+        <v>134.598627707606</v>
       </c>
       <c r="S12">
-        <v>0.0006561174912795125</v>
+        <v>0.0002237799910678013</v>
       </c>
       <c r="T12">
-        <v>0.0007180928939239988</v>
+        <v>0.0002597683211114593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J13">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N13">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O13">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P13">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q13">
-        <v>384.032097228618</v>
+        <v>45.56737501189755</v>
       </c>
       <c r="R13">
-        <v>3456.288875057562</v>
+        <v>410.106375107078</v>
       </c>
       <c r="S13">
-        <v>0.00261647912596673</v>
+        <v>0.0006818316242991255</v>
       </c>
       <c r="T13">
-        <v>0.002863625939605937</v>
+        <v>0.0007914838832539745</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H14">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I14">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J14">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N14">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O14">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P14">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q14">
-        <v>22149.55197337009</v>
+        <v>2134.30223976924</v>
       </c>
       <c r="R14">
-        <v>132897.3118402206</v>
+        <v>12805.81343861544</v>
       </c>
       <c r="S14">
-        <v>0.1509088453961637</v>
+        <v>0.03193589190747027</v>
       </c>
       <c r="T14">
-        <v>0.1101089067629559</v>
+        <v>0.02471455106245275</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H15">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I15">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J15">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O15">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P15">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q15">
-        <v>9692.890321763591</v>
+        <v>2651.1769415247</v>
       </c>
       <c r="R15">
-        <v>87236.01289587232</v>
+        <v>23860.5924737223</v>
       </c>
       <c r="S15">
-        <v>0.06603938936406552</v>
+        <v>0.03966996738065772</v>
       </c>
       <c r="T15">
-        <v>0.07227732357650735</v>
+        <v>0.04604969718627606</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H16">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I16">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J16">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N16">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O16">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P16">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q16">
-        <v>22063.8008503568</v>
+        <v>969.7049039083</v>
       </c>
       <c r="R16">
-        <v>198574.2076532112</v>
+        <v>8727.344135174699</v>
       </c>
       <c r="S16">
-        <v>0.1503246077113149</v>
+        <v>0.01450984327163879</v>
       </c>
       <c r="T16">
-        <v>0.1645239366639922</v>
+        <v>0.01684331833368433</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H17">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I17">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J17">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N17">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O17">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P17">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q17">
-        <v>2785.36229750265</v>
+        <v>1284.78571208324</v>
       </c>
       <c r="R17">
-        <v>16712.1737850159</v>
+        <v>7708.71427249944</v>
       </c>
       <c r="S17">
-        <v>0.0189771697789414</v>
+        <v>0.0192244457513144</v>
       </c>
       <c r="T17">
-        <v>0.01384647409055958</v>
+        <v>0.0148774159038619</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H18">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I18">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J18">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N18">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O18">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P18">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q18">
-        <v>10164.93521479929</v>
+        <v>431.7738017443534</v>
       </c>
       <c r="R18">
-        <v>91484.41693319363</v>
+        <v>3885.96421569918</v>
       </c>
       <c r="S18">
-        <v>0.069255515354732</v>
+        <v>0.006460697648181281</v>
       </c>
       <c r="T18">
-        <v>0.07579723769334958</v>
+        <v>0.007499707964365391</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H19">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I19">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J19">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N19">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O19">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P19">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q19">
-        <v>40535.94235761074</v>
+        <v>1315.564591670593</v>
       </c>
       <c r="R19">
-        <v>364823.4812184966</v>
+        <v>11840.08132503534</v>
       </c>
       <c r="S19">
-        <v>0.2761786001625268</v>
+        <v>0.01968499484938452</v>
       </c>
       <c r="T19">
-        <v>0.3022658180379171</v>
+        <v>0.02285073852542532</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H20">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I20">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J20">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N20">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O20">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P20">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q20">
-        <v>837.1009309043</v>
+        <v>447.170279210643</v>
       </c>
       <c r="R20">
-        <v>3348.4037236172</v>
+        <v>1788.681116842572</v>
       </c>
       <c r="S20">
-        <v>0.005703317842035837</v>
+        <v>0.006691077502991531</v>
       </c>
       <c r="T20">
-        <v>0.002774240263428106</v>
+        <v>0.003452061128998483</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H21">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I21">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J21">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O21">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P21">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q21">
-        <v>366.324678768075</v>
+        <v>555.4637534872276</v>
       </c>
       <c r="R21">
-        <v>2197.94807260845</v>
+        <v>3332.782520923366</v>
       </c>
       <c r="S21">
-        <v>0.00249583532793235</v>
+        <v>0.008311489375470915</v>
       </c>
       <c r="T21">
-        <v>0.00182105759736984</v>
+        <v>0.006432096187270094</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H22">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I22">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J22">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N22">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O22">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P22">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q22">
-        <v>833.8601274340166</v>
+        <v>203.1686068414975</v>
       </c>
       <c r="R22">
-        <v>5003.160764604099</v>
+        <v>1219.011641048985</v>
       </c>
       <c r="S22">
-        <v>0.005681237670371674</v>
+        <v>0.003040043038976012</v>
       </c>
       <c r="T22">
-        <v>0.004145249851345358</v>
+        <v>0.002352628795729732</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H23">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I23">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J23">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N23">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O23">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P23">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q23">
-        <v>105.2675636486225</v>
+        <v>269.183049566693</v>
       </c>
       <c r="R23">
-        <v>421.0702545944899</v>
+        <v>1076.732198266772</v>
       </c>
       <c r="S23">
-        <v>0.0007172066733891477</v>
+        <v>0.004027827274929245</v>
       </c>
       <c r="T23">
-        <v>0.00034886774428922</v>
+        <v>0.002078036902709111</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H24">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I24">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J24">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N24">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O24">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P24">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q24">
-        <v>384.1647334953167</v>
+        <v>90.46348164013484</v>
       </c>
       <c r="R24">
-        <v>2304.9884009719</v>
+        <v>542.7808898408091</v>
       </c>
       <c r="S24">
-        <v>0.00261738280049203</v>
+        <v>0.001353618956772087</v>
       </c>
       <c r="T24">
-        <v>0.001909743315481411</v>
+        <v>0.001047538766826249</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H25">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I25">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J25">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N25">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O25">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P25">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q25">
-        <v>1531.980200928465</v>
+        <v>275.6317145788028</v>
       </c>
       <c r="R25">
-        <v>9191.881205570789</v>
+        <v>1653.790287472817</v>
       </c>
       <c r="S25">
-        <v>0.01043765415977043</v>
+        <v>0.004124319639008145</v>
       </c>
       <c r="T25">
-        <v>0.007615714544002179</v>
+        <v>0.003191728873941372</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H26">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I26">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J26">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N26">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O26">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P26">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q26">
-        <v>61.36504751563999</v>
+        <v>1744.440819369252</v>
       </c>
       <c r="R26">
-        <v>368.19028509384</v>
+        <v>10466.64491621551</v>
       </c>
       <c r="S26">
-        <v>0.0004180910060573542</v>
+        <v>0.02610233565250752</v>
       </c>
       <c r="T26">
-        <v>0.0003050553033094103</v>
+        <v>0.02020007799382231</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H27">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I27">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J27">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O27">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P27">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q27">
-        <v>26.85402738051</v>
+        <v>2166.90082125681</v>
       </c>
       <c r="R27">
-        <v>241.68624642459</v>
+        <v>19502.10739131129</v>
       </c>
       <c r="S27">
-        <v>0.0001829612748421265</v>
+        <v>0.03242366948429391</v>
       </c>
       <c r="T27">
-        <v>0.0002002433909682743</v>
+        <v>0.03763804862989728</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H28">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I28">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J28">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N28">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O28">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P28">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q28">
-        <v>61.12747513744666</v>
+        <v>792.5741657390898</v>
       </c>
       <c r="R28">
-        <v>550.1472762370199</v>
+        <v>7133.167491651809</v>
       </c>
       <c r="S28">
-        <v>0.0004164723831012655</v>
+        <v>0.01185940885693569</v>
       </c>
       <c r="T28">
-        <v>0.000455811440474473</v>
+        <v>0.01376664067882261</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H29">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I29">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J29">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N29">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O29">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P29">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q29">
-        <v>7.716810251512998</v>
+        <v>1050.100870691452</v>
       </c>
       <c r="R29">
-        <v>46.30086150907799</v>
+        <v>6300.605224148711</v>
       </c>
       <c r="S29">
-        <v>5.257600364094048E-05</v>
+        <v>0.01571282045881586</v>
       </c>
       <c r="T29">
-        <v>3.836147753746124E-05</v>
+        <v>0.01215983898898779</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H30">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I30">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J30">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N30">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O30">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P30">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q30">
-        <v>28.16182165668667</v>
+        <v>352.9040219620127</v>
       </c>
       <c r="R30">
-        <v>253.45639491018</v>
+        <v>3176.136197658114</v>
       </c>
       <c r="S30">
-        <v>0.0001918715103390255</v>
+        <v>0.005280557031280111</v>
       </c>
       <c r="T30">
-        <v>0.0002099952675430551</v>
+        <v>0.00612977696532904</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H31">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I31">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J31">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N31">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O31">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P31">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q31">
-        <v>112.304304477882</v>
+        <v>1075.257539192364</v>
       </c>
       <c r="R31">
-        <v>1010.738740300938</v>
+        <v>9677.317852731281</v>
       </c>
       <c r="S31">
-        <v>0.0007651492428448325</v>
+        <v>0.01608924354971046</v>
       </c>
       <c r="T31">
-        <v>0.0008374235428577105</v>
+        <v>0.01867671798947993</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H32">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I32">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J32">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N32">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O32">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P32">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q32">
-        <v>6974.14755270158</v>
+        <v>11784.76423776964</v>
       </c>
       <c r="R32">
-        <v>41844.88531620947</v>
+        <v>70708.58542661781</v>
       </c>
       <c r="S32">
-        <v>0.04751611030625026</v>
+        <v>0.1763372355796824</v>
       </c>
       <c r="T32">
-        <v>0.03466958444824361</v>
+        <v>0.1364638766179691</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H33">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I33">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J33">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O33">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P33">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q33">
-        <v>3051.964545260595</v>
+        <v>14638.73983089565</v>
       </c>
       <c r="R33">
-        <v>27467.68090734536</v>
+        <v>131748.6584780608</v>
       </c>
       <c r="S33">
-        <v>0.02079357841048141</v>
+        <v>0.2190417103022902</v>
       </c>
       <c r="T33">
-        <v>0.02275769369705329</v>
+        <v>0.254268029358214</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H34">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I34">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J34">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N34">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O34">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P34">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q34">
-        <v>6947.147413582577</v>
+        <v>5354.323047519239</v>
       </c>
       <c r="R34">
-        <v>62524.32672224318</v>
+        <v>48188.90742767314</v>
       </c>
       <c r="S34">
-        <v>0.04733215354609171</v>
+        <v>0.0801175573435837</v>
       </c>
       <c r="T34">
-        <v>0.05180304376474618</v>
+        <v>0.09300207432928238</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H35">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I35">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J35">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N35">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O35">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P35">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q35">
-        <v>877.0167303550984</v>
+        <v>7094.073384186201</v>
       </c>
       <c r="R35">
-        <v>5262.10038213059</v>
+        <v>42564.4403051172</v>
       </c>
       <c r="S35">
-        <v>0.005975271298043748</v>
+        <v>0.106149708583695</v>
       </c>
       <c r="T35">
-        <v>0.00435978811256872</v>
+        <v>0.08214714656027963</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H36">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I36">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J36">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N36">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O36">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P36">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q36">
-        <v>3200.595575788357</v>
+        <v>2384.082424124168</v>
       </c>
       <c r="R36">
-        <v>28805.36018209521</v>
+        <v>21456.74181711752</v>
       </c>
       <c r="S36">
-        <v>0.02180622811255906</v>
+        <v>0.03567339113300145</v>
       </c>
       <c r="T36">
-        <v>0.02386599604344879</v>
+        <v>0.04141039097711166</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H37">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I37">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J37">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N37">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O37">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P37">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q37">
-        <v>12763.40232658753</v>
+        <v>7264.022060002086</v>
       </c>
       <c r="R37">
-        <v>114870.6209392877</v>
+        <v>65376.19854001877</v>
       </c>
       <c r="S37">
-        <v>0.08695933492233852</v>
+        <v>0.1086926766973679</v>
       </c>
       <c r="T37">
-        <v>0.09517332078178996</v>
+        <v>0.1261726484484094</v>
       </c>
     </row>
   </sheetData>
